--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\图书馆\学习笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2914B48E-D14C-428A-84B6-D3A25D92852B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB92BA2-8F7D-4B36-BCD9-67DF61FD69BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" firstSheet="5" activeTab="5" xr2:uid="{D56EF4D3-EBA0-4468-BD87-6F479FAFDC10}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{D56EF4D3-EBA0-4468-BD87-6F479FAFDC10}"/>
   </bookViews>
   <sheets>
     <sheet name="操作系统" sheetId="1" r:id="rId1"/>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039C82D8-EA89-4526-B2D2-77AD4EEFC2A9}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -744,17 +744,17 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <v>1.9629629629629629E-2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <f>B15</f>
         <v>1.9629629629629629E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>0.14868055555555557</v>
       </c>
@@ -767,8 +767,8 @@
         <v>2.5879629629629631E-2</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="1"/>
-        <v>4.5509259259259263E-2</v>
+        <f>B16</f>
+        <v>2.5879629629629631E-2</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
@@ -15789,7 +15789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DADBB54-3ECF-4F0E-A376-2ADF1DE2E333}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
